--- a/code/results/SP/D/modules_time.xlsx
+++ b/code/results/SP/D/modules_time.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,7 +380,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -390,29 +390,49 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>11.52</v>
+        <v>88.38</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Signal_Reconstruction</t>
+          <t>Application_Signature</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>129.3</v>
+        <v>168.94</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Energy_Estimation</t>
+          <t>Profiling</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45.36</v>
+        <v>11.46</v>
       </c>
       <c r="B5" t="inlineStr">
+        <is>
+          <t>Signal_Reconstruction</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>168.22</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Energy_Estimation</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>48.88</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Export_Results</t>
         </is>

--- a/code/results/SP/D/modules_time.xlsx
+++ b/code/results/SP/D/modules_time.xlsx
@@ -380,7 +380,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -390,7 +390,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>88.38</v>
+        <v>89.56</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -400,7 +400,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>168.94</v>
+        <v>157.25</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -410,7 +410,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>11.46</v>
+        <v>11.57</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -420,7 +420,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>168.22</v>
+        <v>129.77</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -430,7 +430,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>48.88</v>
+        <v>44.99</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
